--- a/SIQ Travel Advisor Web Application.xlsx
+++ b/SIQ Travel Advisor Web Application.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\GitHub\Travel-Advisor-Web-Application\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moaz\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{558DB20A-C3E9-4499-9B9B-838DC6B04122}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47C74C3F-37FC-49F6-8B22-F60A8B16811D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{2674161D-EE9C-4604-9960-F90C21651282}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2674161D-EE9C-4604-9960-F90C21651282}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,33 +36,67 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>swdw</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Question</t>
+  </si>
+  <si>
+    <t>Answer</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>Should registration form contains user name/ email address/phone number?</t>
+  </si>
+  <si>
+    <t>Should user login with email and password or username and password?</t>
+  </si>
+  <si>
+    <t>Should password have at leaset 8 characters and at least 1 special character?</t>
+  </si>
+  <si>
+    <t>Should admin be able to delete/add/update users and comments?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -70,12 +104,33 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -94,9 +149,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -134,7 +189,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -240,7 +295,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -382,7 +437,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -390,18 +445,62 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EDEFC7B-DB76-4D04-9BD8-E2FA5959905A}">
-  <dimension ref="B2"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="22.296875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+    <row r="1" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3" spans="1:4" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="1:4" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" spans="1:4" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SIQ Travel Advisor Web Application.xlsx
+++ b/SIQ Travel Advisor Web Application.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moaz\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47C74C3F-37FC-49F6-8B22-F60A8B16811D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D5A0CBCA-EB60-4FAA-B197-9E5A9FCD711E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2674161D-EE9C-4604-9960-F90C21651282}"/>
   </bookViews>

--- a/SIQ Travel Advisor Web Application.xlsx
+++ b/SIQ Travel Advisor Web Application.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moaz\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D5A0CBCA-EB60-4FAA-B197-9E5A9FCD711E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8957BDC-395A-4E4F-A82D-60899D913FEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2674161D-EE9C-4604-9960-F90C21651282}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>ID</t>
   </si>
@@ -50,16 +50,25 @@
     <t>Comment</t>
   </si>
   <si>
-    <t>Should registration form contains user name/ email address/phone number?</t>
-  </si>
-  <si>
-    <t>Should user login with email and password or username and password?</t>
-  </si>
-  <si>
-    <t>Should password have at leaset 8 characters and at least 1 special character?</t>
-  </si>
-  <si>
     <t>Should admin be able to delete/add/update users and comments?</t>
+  </si>
+  <si>
+    <t>Should rating system appears as 5 stars rating in the history</t>
+  </si>
+  <si>
+    <t>Data will be collected and sent  to third party to check the availability?</t>
+  </si>
+  <si>
+    <t>Should registration form contains user name/ email /phone number?</t>
+  </si>
+  <si>
+    <t>Should username contains special character,at least 3 letters?</t>
+  </si>
+  <si>
+    <t>Should the password have at least 8 characters and at least 1 special character?</t>
+  </si>
+  <si>
+    <t>Should the user log in with email and password?</t>
   </si>
 </sst>
 </file>
@@ -96,7 +105,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -119,16 +128,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -445,10 +468,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EDEFC7B-DB76-4D04-9BD8-E2FA5959905A}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -473,7 +496,7 @@
     <row r="2" spans="1:4" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -481,15 +504,15 @@
     <row r="3" spans="1:4" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:4" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -497,12 +520,39 @@
     <row r="5" spans="1:4" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
     </row>
+    <row r="6" spans="1:4" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="B7" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="B8" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4 C5 C6" xr:uid="{6CECA5A2-8D51-4FC9-BD3F-64C441CC431A}">
+      <formula1>"Yes , No"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C3" xr:uid="{16C7CC70-BC65-4DC8-8537-DF5866329D78}">
+      <formula1>"Yes, No"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/SIQ Travel Advisor Web Application.xlsx
+++ b/SIQ Travel Advisor Web Application.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moaz\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8957BDC-395A-4E4F-A82D-60899D913FEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A54B1656-C77F-4C3D-A18C-749B159C20F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2674161D-EE9C-4604-9960-F90C21651282}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>ID</t>
   </si>
@@ -50,25 +50,58 @@
     <t>Comment</t>
   </si>
   <si>
-    <t>Should admin be able to delete/add/update users and comments?</t>
-  </si>
-  <si>
-    <t>Should rating system appears as 5 stars rating in the history</t>
-  </si>
-  <si>
-    <t>Data will be collected and sent  to third party to check the availability?</t>
-  </si>
-  <si>
-    <t>Should registration form contains user name/ email /phone number?</t>
-  </si>
-  <si>
-    <t>Should username contains special character,at least 3 letters?</t>
-  </si>
-  <si>
-    <t>Should the password have at least 8 characters and at least 1 special character?</t>
-  </si>
-  <si>
     <t>Should the user log in with email and password?</t>
+  </si>
+  <si>
+    <t>Should the registration form contain user name/ email /phone number, password?</t>
+  </si>
+  <si>
+    <t>Should the username contain special characters, at least 3 letters?</t>
+  </si>
+  <si>
+    <t>Will the photo gallery contain the top 3 travel destinations?</t>
+  </si>
+  <si>
+    <t>Data will be collected and sent to the third party to check the availability.</t>
+  </si>
+  <si>
+    <t>Should the rating system appear as 5 5-star rating in history?</t>
+  </si>
+  <si>
+    <t>Should the admin be able to delete/add/update users and comments?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Should the password have at least 8 characters and at least 1 special character? </t>
+  </si>
+  <si>
+    <t>Reg-01</t>
+  </si>
+  <si>
+    <t>Reg-02</t>
+  </si>
+  <si>
+    <t>Will the user be able to register, log in, book, cancel, rate?</t>
+  </si>
+  <si>
+    <t>Reg-03</t>
+  </si>
+  <si>
+    <t>Login-01</t>
+  </si>
+  <si>
+    <t>Admin-01</t>
+  </si>
+  <si>
+    <t>Rate-01</t>
+  </si>
+  <si>
+    <t>Booking-01</t>
+  </si>
+  <si>
+    <t>User-01</t>
+  </si>
+  <si>
+    <t>Gallery-01</t>
   </si>
 </sst>
 </file>
@@ -105,7 +138,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -139,11 +172,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -152,6 +194,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -468,18 +516,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EDEFC7B-DB76-4D04-9BD8-E2FA5959905A}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="22.296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.09765625" customWidth="1"/>
+    <col min="2" max="2" width="39" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -493,62 +542,103 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2"/>
+    <row r="2" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" spans="1:4" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2"/>
+    <row r="3" spans="1:8" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2"/>
+    <row r="4" spans="1:8" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="B4" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:4" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2"/>
+    <row r="5" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="B5" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="1:4" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2"/>
+    <row r="6" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="B6" s="2" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="B7" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="B8" s="3" t="s">
-        <v>6</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4 C5 C6" xr:uid="{6CECA5A2-8D51-4FC9-BD3F-64C441CC431A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C6 H9 C9:C10" xr:uid="{6CECA5A2-8D51-4FC9-BD3F-64C441CC431A}">
       <formula1>"Yes , No"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C3" xr:uid="{16C7CC70-BC65-4DC8-8537-DF5866329D78}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C3 C7:C8" xr:uid="{16C7CC70-BC65-4DC8-8537-DF5866329D78}">
       <formula1>"Yes, No"</formula1>
     </dataValidation>
   </dataValidations>

--- a/SIQ Travel Advisor Web Application.xlsx
+++ b/SIQ Travel Advisor Web Application.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moaz\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahmed\OneDrive\Documents\GitHub\Travel-Advisor-Web-Application\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A54B1656-C77F-4C3D-A18C-749B159C20F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75990363-A43B-4414-B0F0-15329572CFD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2674161D-EE9C-4604-9960-F90C21651282}"/>
   </bookViews>
@@ -41,67 +41,400 @@
     <t>ID</t>
   </si>
   <si>
-    <t>Question</t>
-  </si>
-  <si>
-    <t>Answer</t>
-  </si>
-  <si>
     <t>Comment</t>
   </si>
   <si>
-    <t>Should the user log in with email and password?</t>
-  </si>
-  <si>
-    <t>Should the registration form contain user name/ email /phone number, password?</t>
-  </si>
-  <si>
-    <t>Should the username contain special characters, at least 3 letters?</t>
-  </si>
-  <si>
-    <t>Will the photo gallery contain the top 3 travel destinations?</t>
-  </si>
-  <si>
-    <t>Data will be collected and sent to the third party to check the availability.</t>
-  </si>
-  <si>
-    <t>Should the rating system appear as 5 5-star rating in history?</t>
-  </si>
-  <si>
-    <t>Should the admin be able to delete/add/update users and comments?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Should the password have at least 8 characters and at least 1 special character? </t>
-  </si>
-  <si>
-    <t>Reg-01</t>
-  </si>
-  <si>
-    <t>Reg-02</t>
-  </si>
-  <si>
-    <t>Will the user be able to register, log in, book, cancel, rate?</t>
-  </si>
-  <si>
-    <t>Reg-03</t>
-  </si>
-  <si>
-    <t>Login-01</t>
-  </si>
-  <si>
-    <t>Admin-01</t>
-  </si>
-  <si>
-    <t>Rate-01</t>
-  </si>
-  <si>
-    <t>Booking-01</t>
-  </si>
-  <si>
-    <t>User-01</t>
-  </si>
-  <si>
-    <t>Gallery-01</t>
+    <t>Requirement/Question</t>
+  </si>
+  <si>
+    <t>REG-01</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Should the registration form include </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>username, email, phone number, and password</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <t>REG-02</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Should the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>username</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> include at least </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3 letters</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and allow </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>special characters</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <t>REG-03</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Should the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>password</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> have a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>minimum of 8 characters</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, including </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>at least 1 special character</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <t>LOGIN-01</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Should the user be able to log in using </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>email and password</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <t>ADMIN-01</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Should the admin have the ability to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>add, delete, and update</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> users and comments?</t>
+    </r>
+  </si>
+  <si>
+    <t>RATE-01</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Should the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>rating system</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> use a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5-star scale</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and be displayed in </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>user history</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <t>BOOKING-01</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Should the booking data be </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sent to a third-party service</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to check flight availability?</t>
+    </r>
+  </si>
+  <si>
+    <t>GALLERY-01</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Should the photo gallery display the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>top 3 travel destinations</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <t>USER-01</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Should users be able to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>register, log in, book, cancel bookings, and leave ratings</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <t>Answers</t>
   </si>
 </sst>
 </file>
@@ -112,14 +445,15 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -133,50 +467,15 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00FFFF"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="1">
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -185,22 +484,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -516,130 +806,109 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EDEFC7B-DB76-4D04-9BD8-E2FA5959905A}">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.09765625" customWidth="1"/>
-    <col min="2" max="2" width="39" customWidth="1"/>
+    <col min="1" max="1" width="11.109375" customWidth="1"/>
+    <col min="2" max="2" width="28.109375" customWidth="1"/>
+    <col min="4" max="4" width="37.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+    <row r="3" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
     </row>
-    <row r="3" spans="1:8" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+    <row r="7" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
+      <c r="B7" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="4" spans="1:8" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+    <row r="8" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
+      <c r="B8" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="5" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
+    <row r="9" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="6" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-    </row>
-    <row r="7" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-    </row>
-    <row r="8" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
+    <row r="10" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-    </row>
-    <row r="9" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="H9" s="2"/>
-    </row>
-    <row r="10" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
+      <c r="B10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
     </row>
   </sheetData>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C6 H9 C9:C10" xr:uid="{6CECA5A2-8D51-4FC9-BD3F-64C441CC431A}">
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C10" xr:uid="{393DC812-3AA0-46D6-B19C-9C624FCB732C}">
       <formula1>"Yes , No"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C3 C7:C8" xr:uid="{16C7CC70-BC65-4DC8-8537-DF5866329D78}">
-      <formula1>"Yes, No"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SIQ Travel Advisor Web Application.xlsx
+++ b/SIQ Travel Advisor Web Application.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahmed\OneDrive\Documents\GitHub\Travel-Advisor-Web-Application\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75990363-A43B-4414-B0F0-15329572CFD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{87771BE2-D77B-4AD3-ABDC-53C979075E6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2674161D-EE9C-4604-9960-F90C21651282}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,13 +41,16 @@
     <t>ID</t>
   </si>
   <si>
+    <t>Requirement/Question</t>
+  </si>
+  <si>
+    <t>Answers</t>
+  </si>
+  <si>
     <t>Comment</t>
   </si>
   <si>
-    <t>Requirement/Question</t>
-  </si>
-  <si>
-    <t>REG-01</t>
+    <t>SIQ-Reg-01</t>
   </si>
   <si>
     <r>
@@ -76,7 +79,7 @@
     </r>
   </si>
   <si>
-    <t>REG-02</t>
+    <t>SIQ-Reg-02</t>
   </si>
   <si>
     <r>
@@ -147,7 +150,7 @@
     </r>
   </si>
   <si>
-    <t>REG-03</t>
+    <t>SIQ-Reg-03</t>
   </si>
   <si>
     <r>
@@ -218,7 +221,7 @@
     </r>
   </si>
   <si>
-    <t>LOGIN-01</t>
+    <t>SIQ-Login-01</t>
   </si>
   <si>
     <r>
@@ -247,7 +250,7 @@
     </r>
   </si>
   <si>
-    <t>ADMIN-01</t>
+    <t>SIQ-Admin-01</t>
   </si>
   <si>
     <r>
@@ -276,19 +279,24 @@
     </r>
   </si>
   <si>
-    <t>RATE-01</t>
-  </si>
-  <si>
-    <r>
+    <t>SIQ-Rate-01</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Should the </t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
       <t>rating system</t>
@@ -296,9 +304,8 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> use a </t>
@@ -307,19 +314,17 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>5-star scale</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5-star scale with text box</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> and be displayed in </t>
@@ -328,9 +333,8 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
       <t>user history</t>
@@ -338,16 +342,15 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
       <t>?</t>
     </r>
   </si>
   <si>
-    <t>BOOKING-01</t>
+    <t>SIQ-Booking-01</t>
   </si>
   <si>
     <r>
@@ -376,7 +379,7 @@
     </r>
   </si>
   <si>
-    <t>GALLERY-01</t>
+    <t>SIQ-Gallery-01</t>
   </si>
   <si>
     <r>
@@ -405,7 +408,7 @@
     </r>
   </si>
   <si>
-    <t>USER-01</t>
+    <t>SIQ-User-01</t>
   </si>
   <si>
     <r>
@@ -432,16 +435,13 @@
       </rPr>
       <t>?</t>
     </r>
-  </si>
-  <si>
-    <t>Answers</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -455,6 +455,19 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -484,13 +497,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -510,9 +526,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -550,7 +566,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -656,7 +672,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -798,7 +814,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -809,100 +825,100 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="11.109375" customWidth="1"/>
-    <col min="2" max="2" width="28.109375" customWidth="1"/>
-    <col min="4" max="4" width="37.6640625" customWidth="1"/>
+    <col min="1" max="1" width="11.140625" customWidth="1"/>
+    <col min="2" max="2" width="28.140625" customWidth="1"/>
+    <col min="4" max="4" width="37.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="28.9">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="45.75">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="45.75">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="60.75">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="30.75">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="45.75">
+      <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="45.75">
+      <c r="A7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="45.75">
+      <c r="A8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="45.75">
+      <c r="A9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="45.75">
+      <c r="A10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
